--- a/Output/AllModels_sensSocial.xlsx
+++ b/Output/AllModels_sensSocial.xlsx
@@ -1,1313 +1,1306 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kueng\DataAnalysis\02TimeAndTiesControl_updatedBRMS\Output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9EA49D-5B99-4B76-9E21-FEB377F1BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-19303" yWindow="3369" windowWidth="19406" windowHeight="11485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="427">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Subjective MVPA Hurdle Lognormal</t>
-  </si>
-  <si>
-    <t>Device-Based MVPA Log (Gaussian)</t>
-  </si>
-  <si>
-    <t>Mood Gaussian</t>
-  </si>
-  <si>
-    <t>Reactance Ordinal</t>
-  </si>
-  <si>
-    <t>Reactance Dichotome</t>
-  </si>
-  <si>
-    <t>exp(Est.)</t>
-  </si>
-  <si>
-    <t>95% CI</t>
-  </si>
-  <si>
-    <t>pd</t>
-  </si>
-  <si>
-    <t>Est.</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>46.31***</t>
-  </si>
-  <si>
-    <t>[40.93, 52.35]</t>
-  </si>
-  <si>
-    <t>1.000</t>
-  </si>
-  <si>
-    <t>117.05***</t>
-  </si>
-  <si>
-    <t>[105.60, 130.18]</t>
-  </si>
-  <si>
-    <t>3.69***</t>
-  </si>
-  <si>
-    <t>[ 3.49, 3.90]</t>
-  </si>
-  <si>
-    <t>0.31***</t>
-  </si>
-  <si>
-    <t>[0.17,   0.55]</t>
-  </si>
-  <si>
-    <t>Hurdle Intercept</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>[ 0.62,  1.16]</t>
-  </si>
-  <si>
-    <t>0.861</t>
-  </si>
-  <si>
-    <t>Conditional Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>[ 0.94,  1.04]</t>
-  </si>
-  <si>
-    <t>0.623</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>[  0.98,   1.04]</t>
-  </si>
-  <si>
-    <t>0.707</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>[-0.08, 0.00]</t>
-  </si>
-  <si>
-    <t>0.970</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>[   0.76,     1.10]</t>
-  </si>
-  <si>
-    <t>0.825</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>[0.73,   1.10]</t>
-  </si>
-  <si>
-    <t>0.826</t>
-  </si>
-  <si>
-    <t>Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>[ 0.95,  1.05]</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>[-0.05, 0.04]</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>[   0.91,     1.39]</t>
-  </si>
-  <si>
-    <t>0.868</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>[0.90,   1.71]</t>
-  </si>
-  <si>
-    <t>0.908</t>
-  </si>
-  <si>
-    <t>Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>0.90*</t>
-  </si>
-  <si>
-    <t>[ 0.81,  0.99]</t>
-  </si>
-  <si>
-    <t>0.979</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>[  0.88,   1.01]</t>
-  </si>
-  <si>
-    <t>0.950</t>
-  </si>
-  <si>
-    <t>[-0.15, 0.07]</t>
-  </si>
-  <si>
-    <t>0.774</t>
-  </si>
-  <si>
-    <t>1.86*</t>
-  </si>
-  <si>
-    <t>[   1.18,     2.67]</t>
-  </si>
-  <si>
-    <t>0.994</t>
-  </si>
-  <si>
-    <t>1.96*</t>
-  </si>
-  <si>
-    <t>[1.06,   4.31]</t>
-  </si>
-  <si>
-    <t>0.982</t>
-  </si>
-  <si>
-    <t>Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>[ 0.86,  1.03]</t>
-  </si>
-  <si>
-    <t>0.903</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>[  0.92,   1.05]</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>[-0.13, 0.08]</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>[   0.65,     1.96]</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>[0.54,   3.96]</t>
-  </si>
-  <si>
-    <t>0.742</t>
-  </si>
-  <si>
-    <t>Daily pushing experienced</t>
-  </si>
-  <si>
-    <t>[ 0.94,  1.07]</t>
-  </si>
-  <si>
-    <t>0.560</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>[  0.97,   1.07]</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>[-0.07, 0.06]</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>1.24*</t>
-  </si>
-  <si>
-    <t>[   1.02,     1.55]</t>
-  </si>
-  <si>
-    <t>1.36*</t>
-  </si>
-  <si>
-    <t>[1.07,   1.75]</t>
-  </si>
-  <si>
-    <t>Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>[ 0.92,  1.04]</t>
-  </si>
-  <si>
-    <t>0.783</t>
-  </si>
-  <si>
-    <t>[  0.97,   1.05]</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.12]</t>
-  </si>
-  <si>
-    <t>0.957</t>
-  </si>
-  <si>
-    <t>[   0.73,     1.21]</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>[0.63,   1.37]</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.14]</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>[  0.91,   1.05]</t>
-  </si>
-  <si>
-    <t>0.761</t>
-  </si>
-  <si>
-    <t>0.26***</t>
-  </si>
-  <si>
-    <t>[ 0.16, 0.37]</t>
-  </si>
-  <si>
-    <t>1.41</t>
-  </si>
-  <si>
-    <t>[   0.72,     2.80]</t>
-  </si>
-  <si>
-    <t>0.846</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>[0.69,   3.46]</t>
-  </si>
-  <si>
-    <t>0.849</t>
-  </si>
-  <si>
-    <t>Daily weartime</t>
-  </si>
-  <si>
-    <t>1.00***</t>
-  </si>
-  <si>
-    <t>[  1.00,   1.00]</t>
-  </si>
-  <si>
-    <t>Actionplan</t>
-  </si>
-  <si>
-    <t>Daily support received</t>
-  </si>
-  <si>
-    <t>1.07***</t>
-  </si>
-  <si>
-    <t>[ 1.04,  1.10]</t>
-  </si>
-  <si>
-    <t>1.04***</t>
-  </si>
-  <si>
-    <t>[  1.02,   1.06]</t>
-  </si>
-  <si>
-    <t>0.08***</t>
-  </si>
-  <si>
-    <t>[ 0.05, 0.11]</t>
-  </si>
-  <si>
-    <t>0.82**</t>
-  </si>
-  <si>
-    <t>[   0.71,     0.94]</t>
-  </si>
-  <si>
-    <t>0.998</t>
-  </si>
-  <si>
-    <t>0.83*</t>
-  </si>
-  <si>
-    <t>[0.69,   0.98]</t>
-  </si>
-  <si>
-    <t>0.989</t>
-  </si>
-  <si>
-    <t>Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.05***</t>
-  </si>
-  <si>
-    <t>[ 1.03,  1.08]</t>
-  </si>
-  <si>
-    <t>[  1.00,   1.03]</t>
-  </si>
-  <si>
-    <t>0.956</t>
-  </si>
-  <si>
-    <t>0.04**</t>
-  </si>
-  <si>
-    <t>[ 0.01, 0.07]</t>
-  </si>
-  <si>
-    <t>0.996</t>
-  </si>
-  <si>
-    <t>0.86*</t>
-  </si>
-  <si>
-    <t>[   0.74,     1.00]</t>
-  </si>
-  <si>
-    <t>0.976</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>[0.73,   1.02]</t>
-  </si>
-  <si>
-    <t>Is a Weekend</t>
-  </si>
-  <si>
-    <t>JITAI received</t>
-  </si>
-  <si>
-    <t>Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t>Conditional Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>[ 0.67,  1.25]</t>
-  </si>
-  <si>
-    <t>0.716</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>[  0.78,   1.40]</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>[-0.32, 0.84]</t>
-  </si>
-  <si>
-    <t>0.822</t>
-  </si>
-  <si>
-    <t>1.31</t>
-  </si>
-  <si>
-    <t>[   0.45,     3.84]</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>[0.66,   7.93]</t>
-  </si>
-  <si>
-    <t>0.901</t>
-  </si>
-  <si>
-    <t>Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.33]</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>[  0.72,   1.29]</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>[-0.26, 0.91]</t>
-  </si>
-  <si>
-    <t>0.877</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>[   0.42,     5.15]</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>[0.53,   8.47]</t>
-  </si>
-  <si>
-    <t>Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>[ 0.87,  1.74]</t>
-  </si>
-  <si>
-    <t>0.872</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>[  0.78,   1.38]</t>
-  </si>
-  <si>
-    <t>0.580</t>
-  </si>
-  <si>
-    <t>-0.28</t>
-  </si>
-  <si>
-    <t>[-0.84, 0.27]</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>3.52*</t>
-  </si>
-  <si>
-    <t>[   1.16,    10.53]</t>
-  </si>
-  <si>
-    <t>0.986</t>
-  </si>
-  <si>
-    <t>20.59**</t>
-  </si>
-  <si>
-    <t>[2.52, 198.93]</t>
-  </si>
-  <si>
-    <t>Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>[ 0.62,  1.28]</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>[  0.72,   1.27]</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>[-0.90, 0.22]</t>
-  </si>
-  <si>
-    <t>0.887</t>
-  </si>
-  <si>
-    <t>[   0.38,     4.24]</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>[0.25,  24.81]</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>1.24</t>
-  </si>
-  <si>
-    <t>[ 0.76,  1.98]</t>
-  </si>
-  <si>
-    <t>[  0.59,   1.42]</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>[-0.57, 1.02]</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>[   0.34,     8.37]</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>[0.15,  10.82]</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>[ 0.71,  1.87]</t>
-  </si>
-  <si>
-    <t>0.727</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>[  0.73,   1.75]</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>[-0.64, 0.96]</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.13*</t>
-  </si>
-  <si>
-    <t>[   0.02,     0.84]</t>
-  </si>
-  <si>
-    <t>0.983</t>
-  </si>
-  <si>
-    <t>0.10*</t>
-  </si>
-  <si>
-    <t>[0.01,   0.89]</t>
-  </si>
-  <si>
-    <t>0.981</t>
-  </si>
-  <si>
-    <t>Mean weartime</t>
-  </si>
-  <si>
-    <t>0.912</t>
-  </si>
-  <si>
-    <t>Mean support received</t>
-  </si>
-  <si>
-    <t>1.12*</t>
-  </si>
-  <si>
-    <t>[ 1.02,  1.24]</t>
-  </si>
-  <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>[  0.99,   1.17]</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>[-0.01, 0.30]</t>
-  </si>
-  <si>
-    <t>0.971</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>[   0.39,     1.20]</t>
-  </si>
-  <si>
-    <t>0.897</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>[0.37,   1.40]</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>[ 0.90,  1.09]</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>[  0.93,   1.10]</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>[-0.23, 0.07]</t>
-  </si>
-  <si>
-    <t>0.851</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>[   0.55,     1.37]</t>
-  </si>
-  <si>
-    <t>0.714</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>[0.46,   1.33]</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>Difference study group 2</t>
-  </si>
-  <si>
-    <t>Difference study group 3</t>
-  </si>
-  <si>
-    <t>Hurdle Within-Person Effects</t>
-  </si>
-  <si>
-    <t>Hu Daily persuasion experienced</t>
-  </si>
-  <si>
-    <t>1.17*</t>
-  </si>
-  <si>
-    <t>[ 1.03,  1.33]</t>
-  </si>
-  <si>
-    <t>Hu Daily persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>[ 0.93,  1.20]</t>
-  </si>
-  <si>
-    <t>0.790</t>
-  </si>
-  <si>
-    <t>Hu Daily pressure experienced</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>[ 0.54,  1.11]</t>
-  </si>
-  <si>
-    <t>0.928</t>
-  </si>
-  <si>
-    <t>Hu Daily pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.64*</t>
-  </si>
-  <si>
-    <t>[ 1.09,  2.89]</t>
-  </si>
-  <si>
-    <t>0.991</t>
-  </si>
-  <si>
-    <t>Hu Daily pushing experienced</t>
-  </si>
-  <si>
-    <t>1.50**</t>
-  </si>
-  <si>
-    <t>[ 1.11,  2.20]</t>
-  </si>
-  <si>
-    <t>Hu Daily pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.63***</t>
-  </si>
-  <si>
-    <t>[ 1.29,  2.22]</t>
-  </si>
-  <si>
-    <t>Hu Day</t>
-  </si>
-  <si>
-    <t>[ 0.77,  1.32]</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>Hu Daily weartime</t>
-  </si>
-  <si>
-    <t>Hu Actionplan</t>
-  </si>
-  <si>
-    <t>Hu Daily support received</t>
-  </si>
-  <si>
-    <t>1.69***</t>
-  </si>
-  <si>
-    <t>[ 1.56,  1.84]</t>
-  </si>
-  <si>
-    <t>Hu Daily support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.45***</t>
-  </si>
-  <si>
-    <t>[ 1.34,  1.57]</t>
-  </si>
-  <si>
-    <t>Hu Is a Weekend</t>
-  </si>
-  <si>
-    <t>Hu JITAI received</t>
-  </si>
-  <si>
-    <t>Hu Days post skilled support intervention</t>
-  </si>
-  <si>
-    <t>Hurdle Between-Person Effects</t>
-  </si>
-  <si>
-    <t>Hu Mean persuasion experienced</t>
-  </si>
-  <si>
-    <t>[ 0.46,  2.32]</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>Hu Mean persuasion utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>[ 0.40,  1.98]</t>
-  </si>
-  <si>
-    <t>Hu Mean pressure experienced</t>
-  </si>
-  <si>
-    <t>0.28**</t>
-  </si>
-  <si>
-    <t>[ 0.11,  0.69]</t>
-  </si>
-  <si>
-    <t>Hu Mean pressure utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>[ 0.29,  1.84]</t>
-  </si>
-  <si>
-    <t>Hu Mean pushing experienced</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>[ 0.39,  4.67]</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>Hu Mean pushing utilized (partner's view)</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>[ 0.45,  5.17]</t>
-  </si>
-  <si>
-    <t>Hu Mean weartime</t>
-  </si>
-  <si>
-    <t>Hu Mean support received</t>
-  </si>
-  <si>
-    <t>1.39*</t>
-  </si>
-  <si>
-    <t>[ 1.09,  1.79]</t>
-  </si>
-  <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>Hu Mean support provided (partner's view)</t>
-  </si>
-  <si>
-    <t>1.63**</t>
-  </si>
-  <si>
-    <t>[ 1.26,  2.12]</t>
-  </si>
-  <si>
-    <t>0.999</t>
-  </si>
-  <si>
-    <t>Hu Difference study group 2</t>
-  </si>
-  <si>
-    <t>Hu Difference study group 3</t>
-  </si>
-  <si>
-    <t>Random Effects</t>
-  </si>
-  <si>
-    <t>sd(Intercept)</t>
-  </si>
-  <si>
-    <t>[0.24, 0.42]</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>[0.23, 0.40]</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>[0.49, 0.78]</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>[0.48, 1.34]</t>
-  </si>
-  <si>
-    <t>[0.76, 1.82]</t>
-  </si>
-  <si>
-    <t>sd(Hurdle Intercept)</t>
-  </si>
-  <si>
-    <t>[0.67, 1.14]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>[0.08, 0.17]</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>[0.02, 0.08]</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>[0.00, 0.10]</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>[0.01, 0.46]</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>[0.02, 0.54]</t>
-  </si>
-  <si>
-    <t>sd(Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>[0.05, 0.14]</t>
-  </si>
-  <si>
-    <t>[0.02, 0.09]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.12]</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>[0.01, 0.54]</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>[0.11, 1.02]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>[0.00, 0.22]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.14]</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>[0.00, 0.25]</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>[0.06, 1.15]</t>
-  </si>
-  <si>
-    <t>[0.11, 2.33]</t>
-  </si>
-  <si>
-    <t>sd(Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.00, 0.17]</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>[0.00, 0.11]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.26]</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>[0.02, 1.51]</t>
-  </si>
-  <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>[0.04, 2.73]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>[0.03, 0.18]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.15]</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>[0.01, 0.63]</t>
-  </si>
-  <si>
-    <t>sd(Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.02, 0.17]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.56]</t>
-  </si>
-  <si>
-    <t>[0.01, 0.99]</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily persuasion experienced)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.31]</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily persuasion utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily pressure experienced)</t>
-  </si>
-  <si>
-    <t>[0.01, 0.95]</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily pressure utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>[0.02, 1.25]</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily pushing experienced)</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>[0.30, 1.10]</t>
-  </si>
-  <si>
-    <t>sd(Hu Daily pushing utilized (partner's view))</t>
-  </si>
-  <si>
-    <t>[0.04, 0.65]</t>
-  </si>
-  <si>
-    <t>Additional Parameters</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>[0.65, 0.70]</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>[0.56, 0.59]</t>
-  </si>
-  <si>
-    <t>[0.93, 0.97]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Subjective MVPA Hurdle Lognormal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device-Based MVPA Log (Gaussian)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mood Gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Ordinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactance Dichotome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp(Est.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.31***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40.93, 52.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.05***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[105.60, 130.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.69***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.49, 3.90]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.17,   0.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Intercept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.62,  1.16]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.94,  1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.98,   1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.08, 0.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.76,     1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.73,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.95,  1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.05, 0.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.91,     1.39]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.90,   1.71]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.81,  0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.88,   1.01]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.15, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.18,     2.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.06,   4.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.86,  1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.92,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.13, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.65,     1.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.54,   3.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.94,  1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.07, 0.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.02,     1.55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.07,   1.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.92,  1.04]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.97,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.73,     1.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.63,   1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.91,   1.05]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.16, 0.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.72,     2.80]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.69,   3.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.04,  1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.02,   1.06]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.05, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.71,     0.94]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.69,   0.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.03,  1.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  1.00,   1.03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.01, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.74,     1.00]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.73,   1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is a Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.67,  1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.78,   1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.32, 0.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.45,     3.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.66,   7.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.29]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.26, 0.91]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.42,     5.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.53,   8.47]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.87,  1.74]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.78,   1.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.84, 0.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   1.16,    10.53]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.59**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.52, 198.93]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.62,  1.28]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.72,   1.27]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.90, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.38,     4.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.25,  24.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.76,  1.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.59,   1.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.57, 1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.34,     8.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.15,  10.82]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.71,  1.87]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.73,   1.75]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.64, 0.96]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.02,     0.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01,   0.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.02,  1.24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.99,   1.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.01, 0.30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.39,     1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.37,   1.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.90,  1.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[  0.93,   1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-0.23, 0.07]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[   0.55,     1.37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.46,   1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference study group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Within-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.03,  1.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.93,  1.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.54,  1.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.09,  2.89]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.11,  2.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.29,  2.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.77,  1.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Actionplan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.56,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Daily support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.34,  1.57]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Is a Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu JITAI received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Days post skilled support intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurdle Between-Person Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.46,  2.32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean persuasion utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.40,  1.98]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.11,  0.69]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pressure utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.29,  1.84]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing experienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.39,  4.67]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean pushing utilized (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 0.45,  5.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean weartime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean support received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.09,  1.79]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Mean support provided (partner's view)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.26,  2.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Difference study group 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hu Difference study group 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.24, 0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.23, 0.40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.49, 0.78]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.48, 1.34]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.76, 1.82]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hurdle Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.67, 1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.08, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.46]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.05, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.09]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.54]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11, 1.02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.06, 1.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.11, 2.33]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.51]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 2.73]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.03, 0.18]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.63]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 0.17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.00, 0.56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily persuasion experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily persuasion utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pressure experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.01, 0.95]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pressure utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.02, 1.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pushing experienced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.30, 1.10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd(Hu Daily pushing utilized (partner's view))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.04, 0.65]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.65, 0.70]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.56, 0.59]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.93, 0.97]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1321,16 +1314,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <b/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <i/>
     </font>
   </fonts>
   <fills count="2">
@@ -1350,28 +1343,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1387,35 +1372,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1697,84 +1667,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
-  <cols>
-    <col min="1" max="1" width="43.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.31640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.40625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.40625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +1818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1894,58 +1844,58 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A5" s="10" t="s">
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A6" s="7" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1994,8 +1944,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A7" s="7" t="s">
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2044,8 +1994,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A8" s="7" t="s">
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2094,8 +2044,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A9" s="7" t="s">
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2144,8 +2094,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A10" s="7" t="s">
+    <row r="10">
+      <c r="A10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2194,8 +2144,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A11" s="7" t="s">
+    <row r="11">
+      <c r="A11" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2244,8 +2194,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A12" s="7" t="s">
+    <row r="12">
+      <c r="A12" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2294,8 +2244,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A13" s="7" t="s">
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B13" s="1"/>
@@ -2320,8 +2270,8 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A14" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="1"/>
@@ -2340,8 +2290,8 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A15" s="7" t="s">
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2390,8 +2340,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A16" s="7" t="s">
+    <row r="16">
+      <c r="A16" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2440,8 +2390,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A17" s="7" t="s">
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="1"/>
@@ -2460,8 +2410,8 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A18" s="7" t="s">
+    <row r="18">
+      <c r="A18" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B18" s="1"/>
@@ -2480,8 +2430,8 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A19" s="7" t="s">
+    <row r="19">
+      <c r="A19" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B19" s="1"/>
@@ -2500,58 +2450,58 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A20" s="10" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A21" s="7" t="s">
+    <row r="21">
+      <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2600,8 +2550,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A22" s="7" t="s">
+    <row r="22">
+      <c r="A22" s="8" t="s">
         <v>174</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2650,8 +2600,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A23" s="7" t="s">
+    <row r="23">
+      <c r="A23" s="8" t="s">
         <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2700,8 +2650,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A24" s="7" t="s">
+    <row r="24">
+      <c r="A24" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2750,8 +2700,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A25" s="7" t="s">
+    <row r="25">
+      <c r="A25" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2800,8 +2750,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A26" s="7" t="s">
+    <row r="26">
+      <c r="A26" s="8" t="s">
         <v>231</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2850,8 +2800,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A27" s="7" t="s">
+    <row r="27">
+      <c r="A27" s="8" t="s">
         <v>247</v>
       </c>
       <c r="B27" s="1"/>
@@ -2876,8 +2826,8 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A28" s="7" t="s">
+    <row r="28">
+      <c r="A28" s="8" t="s">
         <v>249</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2926,8 +2876,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A29" s="7" t="s">
+    <row r="29">
+      <c r="A29" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2976,8 +2926,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A30" s="7" t="s">
+    <row r="30">
+      <c r="A30" s="8" t="s">
         <v>278</v>
       </c>
       <c r="B30" s="1"/>
@@ -2996,8 +2946,8 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A31" s="7" t="s">
+    <row r="31">
+      <c r="A31" s="8" t="s">
         <v>279</v>
       </c>
       <c r="B31" s="1"/>
@@ -3016,58 +2966,58 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A32" s="10" t="s">
+    <row r="32">
+      <c r="A32" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="O32" s="11" t="s">
+      <c r="O32" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A33" s="7" t="s">
+    <row r="33">
+      <c r="A33" s="8" t="s">
         <v>281</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3092,8 +3042,8 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A34" s="7" t="s">
+    <row r="34">
+      <c r="A34" s="8" t="s">
         <v>284</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3118,8 +3068,8 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A35" s="7" t="s">
+    <row r="35">
+      <c r="A35" s="8" t="s">
         <v>287</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3144,8 +3094,8 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A36" s="7" t="s">
+    <row r="36">
+      <c r="A36" s="8" t="s">
         <v>291</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3170,8 +3120,8 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A37" s="7" t="s">
+    <row r="37">
+      <c r="A37" s="8" t="s">
         <v>295</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3196,8 +3146,8 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A38" s="7" t="s">
+    <row r="38">
+      <c r="A38" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3222,8 +3172,8 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A39" s="7" t="s">
+    <row r="39">
+      <c r="A39" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3248,8 +3198,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A40" s="7" t="s">
+    <row r="40">
+      <c r="A40" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B40" s="1"/>
@@ -3268,8 +3218,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A41" s="7" t="s">
+    <row r="41">
+      <c r="A41" s="8" t="s">
         <v>305</v>
       </c>
       <c r="B41" s="1"/>
@@ -3288,8 +3238,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A42" s="7" t="s">
+    <row r="42">
+      <c r="A42" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3314,8 +3264,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A43" s="7" t="s">
+    <row r="43">
+      <c r="A43" s="8" t="s">
         <v>309</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3340,8 +3290,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A44" s="7" t="s">
+    <row r="44">
+      <c r="A44" s="8" t="s">
         <v>312</v>
       </c>
       <c r="B44" s="1"/>
@@ -3360,8 +3310,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A45" s="7" t="s">
+    <row r="45">
+      <c r="A45" s="8" t="s">
         <v>313</v>
       </c>
       <c r="B45" s="1"/>
@@ -3380,8 +3330,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A46" s="7" t="s">
+    <row r="46">
+      <c r="A46" s="8" t="s">
         <v>314</v>
       </c>
       <c r="B46" s="1"/>
@@ -3400,58 +3350,58 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A47" s="10" t="s">
+    <row r="47">
+      <c r="A47" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A48" s="7" t="s">
+    <row r="48">
+      <c r="A48" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3476,8 +3426,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A49" s="7" t="s">
+    <row r="49">
+      <c r="A49" s="8" t="s">
         <v>319</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3502,8 +3452,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A50" s="7" t="s">
+    <row r="50">
+      <c r="A50" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3528,8 +3478,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A51" s="7" t="s">
+    <row r="51">
+      <c r="A51" s="8" t="s">
         <v>325</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3554,8 +3504,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A52" s="7" t="s">
+    <row r="52">
+      <c r="A52" s="8" t="s">
         <v>328</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3580,8 +3530,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A53" s="7" t="s">
+    <row r="53">
+      <c r="A53" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3606,8 +3556,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A54" s="7" t="s">
+    <row r="54">
+      <c r="A54" s="8" t="s">
         <v>335</v>
       </c>
       <c r="B54" s="1"/>
@@ -3626,8 +3576,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A55" s="7" t="s">
+    <row r="55">
+      <c r="A55" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3652,8 +3602,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A56" s="7" t="s">
+    <row r="56">
+      <c r="A56" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3678,8 +3628,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A57" s="7" t="s">
+    <row r="57">
+      <c r="A57" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B57" s="1"/>
@@ -3698,8 +3648,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A58" s="7" t="s">
+    <row r="58">
+      <c r="A58" s="8" t="s">
         <v>345</v>
       </c>
       <c r="B58" s="1"/>
@@ -3718,58 +3668,58 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A59" s="10" t="s">
+    <row r="59">
+      <c r="A59" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A60" s="7" t="s">
+    <row r="60">
+      <c r="A60" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3808,8 +3758,8 @@
       </c>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A61" s="7" t="s">
+    <row r="61">
+      <c r="A61" s="8" t="s">
         <v>356</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3832,8 +3782,8 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A62" s="7" t="s">
+    <row r="62">
+      <c r="A62" s="8" t="s">
         <v>358</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -3872,8 +3822,8 @@
       </c>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A63" s="7" t="s">
+    <row r="63">
+      <c r="A63" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3912,8 +3862,8 @@
       </c>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A64" s="7" t="s">
+    <row r="64">
+      <c r="A64" s="8" t="s">
         <v>378</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3952,8 +3902,8 @@
       </c>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A65" s="7" t="s">
+    <row r="65">
+      <c r="A65" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3992,8 +3942,8 @@
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A66" s="7" t="s">
+    <row r="66">
+      <c r="A66" s="8" t="s">
         <v>395</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4032,8 +3982,8 @@
       </c>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A67" s="7" t="s">
+    <row r="67">
+      <c r="A67" s="8" t="s">
         <v>403</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4072,8 +4022,8 @@
       </c>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A68" s="7" t="s">
+    <row r="68">
+      <c r="A68" s="8" t="s">
         <v>407</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4096,8 +4046,8 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A69" s="7" t="s">
+    <row r="69">
+      <c r="A69" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4120,8 +4070,8 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A70" s="7" t="s">
+    <row r="70">
+      <c r="A70" s="8" t="s">
         <v>410</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4144,8 +4094,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A71" s="7" t="s">
+    <row r="71">
+      <c r="A71" s="8" t="s">
         <v>412</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4168,8 +4118,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A72" s="7" t="s">
+    <row r="72">
+      <c r="A72" s="8" t="s">
         <v>415</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4192,8 +4142,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A73" s="7" t="s">
+    <row r="73">
+      <c r="A73" s="8" t="s">
         <v>418</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4216,58 +4166,58 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A74" s="10" t="s">
+    <row r="74">
+      <c r="A74" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="H74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="I74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="K74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="L74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="P74" s="11" t="s">
+      <c r="P74" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A75" s="8" t="s">
+    <row r="75">
+      <c r="A75" s="9" t="s">
         <v>421</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -4298,60 +4248,60 @@
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A76" s="7"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A77" s="7"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A78" s="7"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A88" s="7"/>
+    <row r="76">
+      <c r="A76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A32:P32"/>
     <mergeCell ref="A47:P47"/>
     <mergeCell ref="A59:P59"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A74:P74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>